--- a/fetched_data/final_preprocessed/final_preprocessed_31-12-24_PUDUCHERRY_merged.xlsx
+++ b/fetched_data/final_preprocessed/final_preprocessed_31-12-24_PUDUCHERRY_merged.xlsx
@@ -538,7 +538,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>M  GOPALAKRISHNAN</t>
+          <t>m  gopalakrishnan</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
